--- a/data/trans_orig/OT3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/OT3-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0665D675-A85B-44DF-9DDD-7A2DF8E3E77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64C64C16-359C-4186-8F59-DD71B64D3A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C2491696-9372-4CE1-8BA5-C292A22F0D00}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9DC51F48-4C2D-4FFB-836C-B48A97A81882}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -514,7 +514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E8EC42-186E-45E2-A20B-9128C1F3B71C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190BF59F-BE9B-41BC-9CD3-EA7AA564C084}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1308,7 +1308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76734A74-D83E-4CED-A8BE-DDCC5EEE20DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1330FE0E-4C39-4A4F-9241-F02F3E90FEEF}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/OT3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/OT3-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64C64C16-359C-4186-8F59-DD71B64D3A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F04694A-36AE-4494-BF96-B4A666AFCC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9DC51F48-4C2D-4FFB-836C-B48A97A81882}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7C025564-42AD-4357-BF57-26129B150EF8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -102,7 +102,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con diagnóstico de otra enfermedad 3 en 2015 (Tasa respuesta: 0,02%)</t>
+    <t>Población con diagnóstico de otra enfermedad 3 en 2016 (Tasa respuesta: 0,02%)</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190BF59F-BE9B-41BC-9CD3-EA7AA564C084}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BCC7BB-5C59-41E5-8A11-F034C3D51B48}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1308,7 +1308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1330FE0E-4C39-4A4F-9241-F02F3E90FEEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415DDCDB-534E-4895-AFE1-BBD878DEC8FE}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/OT3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/OT3-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F04694A-36AE-4494-BF96-B4A666AFCC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4503D14-013F-4F66-84C7-45F31B455CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7C025564-42AD-4357-BF57-26129B150EF8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{892D9406-1DE6-4B30-987B-94E6E63FD1E6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -514,7 +514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BCC7BB-5C59-41E5-8A11-F034C3D51B48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C1BD38-01B4-40ED-B068-E98699DBC966}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1308,7 +1308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415DDCDB-534E-4895-AFE1-BBD878DEC8FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430BDEA9-34D5-4EF6-B854-75B436E3EBC3}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/OT3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/OT3-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4503D14-013F-4F66-84C7-45F31B455CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E49AF41-7E00-4BAD-8070-02F02DFC3E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{892D9406-1DE6-4B30-987B-94E6E63FD1E6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CAA2FE1D-8CE2-4133-B62D-FD480AFADE44}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="23">
   <si>
     <t>Población con diagnóstico de otra enfermedad 3 en 2012 (Tasa respuesta: 0,02%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Otros</t>
@@ -75,13 +75,13 @@
     <t>—%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -93,10 +93,13 @@
     <t>100%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>75 o más</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -514,8 +517,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C1BD38-01B4-40ED-B068-E98699DBC966}">
-  <dimension ref="A1:Q18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DFF8DF-4834-4CD7-93B7-82216E6E7528}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1186,25 +1189,23 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1220,19 +1221,17 @@
         <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
-      </c>
-      <c r="N16" s="7">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N16" s="7"/>
       <c r="O16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1241,19 +1240,17 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1269,33 +1266,132 @@
         <v>11</v>
       </c>
       <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7">
         <v>1</v>
       </c>
-      <c r="N17" s="7">
+      <c r="D18" s="7">
         <v>983</v>
       </c>
-      <c r="O17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
+      <c r="E18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1</v>
+      </c>
+      <c r="N18" s="7">
+        <v>983</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>983</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1</v>
+      </c>
+      <c r="N19" s="7">
+        <v>983</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1308,8 +1404,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430BDEA9-34D5-4EF6-B854-75B436E3EBC3}">
-  <dimension ref="A1:Q18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8588F822-E44A-4FA7-A065-063CB6AD84C3}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1325,7 +1421,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1980,25 +2076,23 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7">
-        <v>961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2014,19 +2108,17 @@
         <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
-      </c>
-      <c r="N16" s="7">
-        <v>961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N16" s="7"/>
       <c r="O16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,19 +2127,17 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7">
-        <v>961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2063,33 +2153,132 @@
         <v>11</v>
       </c>
       <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7">
         <v>1</v>
       </c>
-      <c r="N17" s="7">
+      <c r="D18" s="7">
         <v>961</v>
       </c>
-      <c r="O17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
+      <c r="E18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1</v>
+      </c>
+      <c r="N18" s="7">
+        <v>961</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>961</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1</v>
+      </c>
+      <c r="N19" s="7">
+        <v>961</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
